--- a/manager_B.xlsx
+++ b/manager_B.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,15 +509,10 @@
           <t>m/min</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -525,122 +520,120 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>87.7</v>
+        <v>78.73999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.74</v>
+        <v>0.95</v>
       </c>
       <c r="E2" t="n">
-        <v>4.47</v>
+        <v>19.35</v>
       </c>
       <c r="F2" t="n">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.48</v>
+        <v>0.96</v>
       </c>
       <c r="H2" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="I2" t="n">
-        <v>1.79</v>
+        <v>2.68</v>
       </c>
       <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="L2" t="n">
+        <v>156</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>2</v>
       </c>
-      <c r="K2" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="L2" t="n">
-        <v>172</v>
-      </c>
-      <c r="M2" t="n">
-        <v>38</v>
-      </c>
-      <c r="N2" t="n">
-        <v>10</v>
-      </c>
       <c r="O2" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
+        <v>25.76</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>13.0 lbs-13/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>82.93000000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>203</v>
+      </c>
+      <c r="M3" t="n">
+        <v>67</v>
+      </c>
+      <c r="N3" t="n">
+        <v>10</v>
+      </c>
+      <c r="O3" t="n">
+        <v>25.78</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>6</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>13.0 lbs-13/1 lbs CRT</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>90.76000000000001</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>34.6</v>
-      </c>
-      <c r="L3" t="n">
-        <v>112</v>
-      </c>
-      <c r="M3" t="n">
-        <v>35</v>
-      </c>
-      <c r="N3" t="n">
-        <v>11</v>
-      </c>
-      <c r="O3" t="n">
-        <v>25</v>
-      </c>
-      <c r="P3" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>13.0 lbs-13/1 lbs CRT</t>
-        </is>
-      </c>
       <c r="C4" t="n">
-        <v>64.36</v>
+        <v>84.16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.57</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>12.4</v>
+        <v>7.3</v>
       </c>
       <c r="F4" t="n">
-        <v>2.46</v>
+        <v>1.98</v>
       </c>
       <c r="G4" t="n">
-        <v>16.89</v>
+        <v>5.8</v>
       </c>
       <c r="H4" t="n">
-        <v>11.5</v>
+        <v>3.1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -649,27 +642,24 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>139.9</v>
+        <v>62.6</v>
       </c>
       <c r="L4" t="n">
-        <v>349</v>
+        <v>160</v>
       </c>
       <c r="M4" t="n">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>25.13</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -677,103 +667,95 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>79.45999999999999</v>
+        <v>80.12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.51</v>
+        <v>0.44</v>
       </c>
       <c r="E5" t="n">
-        <v>11.91</v>
+        <v>11.27</v>
       </c>
       <c r="F5" t="n">
-        <v>3.26</v>
+        <v>2.6</v>
       </c>
       <c r="G5" t="n">
-        <v>4.77</v>
+        <v>5.49</v>
       </c>
       <c r="H5" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>80.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>129</v>
+      </c>
+      <c r="M5" t="n">
+        <v>60</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>25.27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>13.0 lbs-13/1 lbs CRT</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>71.69</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.89</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="K5" t="n">
-        <v>79.09999999999999</v>
-      </c>
-      <c r="L5" t="n">
-        <v>174</v>
-      </c>
-      <c r="M5" t="n">
-        <v>83</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>25.38</v>
-      </c>
-      <c r="P5" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>16.0 lbs-16/1 CRT</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>83.33</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
       <c r="K6" t="n">
-        <v>58.8</v>
+        <v>113.3</v>
       </c>
       <c r="L6" t="n">
-        <v>156</v>
+        <v>281</v>
       </c>
       <c r="M6" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N6" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>25.17</v>
-      </c>
-      <c r="P6" t="n">
-        <v>16</v>
+        <v>25.55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -781,51 +763,48 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>79.34</v>
+        <v>85.19</v>
       </c>
       <c r="D7" t="n">
-        <v>0.32</v>
+        <v>0.82</v>
       </c>
       <c r="E7" t="n">
-        <v>2.91</v>
+        <v>7.49</v>
       </c>
       <c r="F7" t="n">
-        <v>11.2</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>6.06</v>
+        <v>5.26</v>
       </c>
       <c r="H7" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>42.7</v>
+        <v>61.1</v>
       </c>
       <c r="L7" t="n">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="M7" t="n">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="N7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>26.36</v>
-      </c>
-      <c r="P7" t="n">
-        <v>16</v>
+        <v>25.46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -833,51 +812,48 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>80.78</v>
+        <v>84.13</v>
       </c>
       <c r="D8" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="E8" t="n">
-        <v>2.25</v>
+        <v>8.84</v>
       </c>
       <c r="F8" t="n">
-        <v>8.23</v>
+        <v>0.92</v>
       </c>
       <c r="G8" t="n">
-        <v>8.119999999999999</v>
+        <v>5.19</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="I8" t="n">
-        <v>0.89</v>
+        <v>1.79</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>49.6</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="M8" t="n">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>25.47</v>
-      </c>
-      <c r="P8" t="n">
-        <v>16</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -885,46 +861,43 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>70.01000000000001</v>
+        <v>83.72</v>
       </c>
       <c r="D9" t="n">
-        <v>0.52</v>
+        <v>0.39</v>
       </c>
       <c r="E9" t="n">
-        <v>3.33</v>
+        <v>7.27</v>
       </c>
       <c r="F9" t="n">
-        <v>18.27</v>
+        <v>1.79</v>
       </c>
       <c r="G9" t="n">
-        <v>7.74</v>
+        <v>6.48</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="I9" t="n">
-        <v>1.79</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>52.8</v>
+        <v>65.7</v>
       </c>
       <c r="L9" t="n">
-        <v>345</v>
+        <v>110</v>
       </c>
       <c r="M9" t="n">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="N9" t="n">
         <v>12</v>
       </c>
       <c r="O9" t="n">
-        <v>25.64</v>
-      </c>
-      <c r="P9" t="n">
-        <v>26</v>
+        <v>25.39</v>
       </c>
     </row>
     <row r="10">
@@ -937,46 +910,43 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>76.84999999999999</v>
+        <v>72.11</v>
       </c>
       <c r="D10" t="n">
-        <v>0.42</v>
+        <v>0.62</v>
       </c>
       <c r="E10" t="n">
-        <v>2.11</v>
+        <v>9.35</v>
       </c>
       <c r="F10" t="n">
-        <v>2.76</v>
+        <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>17.44</v>
+        <v>14.86</v>
       </c>
       <c r="H10" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.89</v>
+        <v>1.79</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>92.59999999999999</v>
+        <v>115.7</v>
       </c>
       <c r="L10" t="n">
-        <v>350</v>
+        <v>445</v>
       </c>
       <c r="M10" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O10" t="n">
-        <v>31.27</v>
-      </c>
-      <c r="P10" t="n">
-        <v>26</v>
+        <v>31.21</v>
       </c>
     </row>
     <row r="11">
@@ -989,22 +959,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>75.75</v>
+        <v>75.2</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
       <c r="E11" t="n">
-        <v>5.42</v>
+        <v>13.75</v>
       </c>
       <c r="F11" t="n">
-        <v>3.61</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
-        <v>14.63</v>
+        <v>7.77</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1013,22 +983,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>96</v>
+        <v>103.1</v>
       </c>
       <c r="L11" t="n">
-        <v>299</v>
+        <v>350</v>
       </c>
       <c r="M11" t="n">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="N11" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="O11" t="n">
-        <v>30.77</v>
-      </c>
-      <c r="P11" t="n">
-        <v>26</v>
+        <v>30.78</v>
       </c>
     </row>
     <row r="12">
@@ -1041,22 +1008,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>74.73999999999999</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="n">
-        <v>3.52</v>
+        <v>7.62</v>
       </c>
       <c r="F12" t="n">
-        <v>5.42</v>
+        <v>2.67</v>
       </c>
       <c r="G12" t="n">
-        <v>15.55</v>
+        <v>14.03</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
         <v>1.79</v>
@@ -1065,22 +1032,19 @@
         <v>2</v>
       </c>
       <c r="K12" t="n">
-        <v>90.09999999999999</v>
+        <v>103.7</v>
       </c>
       <c r="L12" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M12" t="n">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="N12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O12" t="n">
-        <v>31.17</v>
-      </c>
-      <c r="P12" t="n">
-        <v>26</v>
+        <v>31.22</v>
       </c>
     </row>
     <row r="13">
@@ -1093,22 +1057,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>79.41</v>
+        <v>68.06</v>
       </c>
       <c r="D13" t="n">
-        <v>0.47</v>
+        <v>0.36</v>
       </c>
       <c r="E13" t="n">
-        <v>2.75</v>
+        <v>7.35</v>
       </c>
       <c r="F13" t="n">
-        <v>4.02</v>
+        <v>9.73</v>
       </c>
       <c r="G13" t="n">
-        <v>12.98</v>
+        <v>14.05</v>
       </c>
       <c r="H13" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1117,72 +1081,68 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>75.3</v>
+        <v>102.4</v>
       </c>
       <c r="L13" t="n">
-        <v>332</v>
+        <v>456</v>
       </c>
       <c r="M13" t="n">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="N13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O13" t="n">
-        <v>30.88</v>
-      </c>
-      <c r="P13" t="n">
-        <v>26</v>
+        <v>31.03</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="n">
+        <v>17</v>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>26.0 lbs-26/1 LBS CRT</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>79.89</v>
+        <v>71.56</v>
       </c>
       <c r="D14" t="n">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="E14" t="n">
-        <v>2.71</v>
+        <v>8.17</v>
       </c>
       <c r="F14" t="n">
-        <v>1.7</v>
+        <v>6.44</v>
       </c>
       <c r="G14" t="n">
-        <v>13.59</v>
+        <v>12.83</v>
       </c>
       <c r="H14" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="I14" t="n">
-        <v>1.79</v>
+        <v>0.89</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>77.7</v>
+        <v>100.1</v>
       </c>
       <c r="L14" t="n">
         <v>434</v>
       </c>
       <c r="M14" t="n">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="N14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O14" t="n">
-        <v>31.01</v>
-      </c>
-      <c r="P14" t="n">
-        <v>16</v>
+        <v>30.98</v>
       </c>
     </row>
     <row r="15">
@@ -1195,46 +1155,43 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>87.58</v>
+        <v>83.55</v>
       </c>
       <c r="D15" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="E15" t="n">
-        <v>3.06</v>
+        <v>7.61</v>
       </c>
       <c r="F15" t="n">
-        <v>2.29</v>
+        <v>2.85</v>
       </c>
       <c r="G15" t="n">
-        <v>6.73</v>
+        <v>5.6</v>
       </c>
       <c r="H15" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="I15" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>46.8</v>
+        <v>63.1</v>
       </c>
       <c r="L15" t="n">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="M15" t="n">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="N15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O15" t="n">
-        <v>24.88</v>
-      </c>
-      <c r="P15" t="n">
-        <v>16</v>
+        <v>24.92</v>
       </c>
     </row>
     <row r="16">
@@ -1247,22 +1204,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>83.36</v>
+        <v>75.12</v>
       </c>
       <c r="D16" t="n">
-        <v>0.33</v>
+        <v>0.46</v>
       </c>
       <c r="E16" t="n">
-        <v>4.03</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>5.04</v>
+        <v>3.51</v>
       </c>
       <c r="G16" t="n">
-        <v>7.09</v>
+        <v>20.6</v>
       </c>
       <c r="H16" t="n">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="I16" t="n">
         <v>2.68</v>
@@ -1271,22 +1228,19 @@
         <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>53.2</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>205</v>
+        <v>309</v>
       </c>
       <c r="M16" t="n">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>24.77</v>
-      </c>
-      <c r="P16" t="n">
-        <v>16</v>
+        <v>24.81</v>
       </c>
     </row>
     <row r="17">
@@ -1299,46 +1253,43 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>85.18000000000001</v>
+        <v>84.06</v>
       </c>
       <c r="D17" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="E17" t="n">
-        <v>1.33</v>
+        <v>6.97</v>
       </c>
       <c r="F17" t="n">
-        <v>4.91</v>
+        <v>2.34</v>
       </c>
       <c r="G17" t="n">
-        <v>8.15</v>
+        <v>6.21</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>45.4</v>
+        <v>63</v>
       </c>
       <c r="L17" t="n">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="M17" t="n">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="N17" t="n">
         <v>13</v>
       </c>
       <c r="O17" t="n">
         <v>24.87</v>
-      </c>
-      <c r="P17" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1351,22 +1302,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>77.59</v>
+        <v>79.23999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="E18" t="n">
-        <v>3.17</v>
+        <v>14</v>
       </c>
       <c r="F18" t="n">
-        <v>12.22</v>
+        <v>1.6</v>
       </c>
       <c r="G18" t="n">
-        <v>6.49</v>
+        <v>4.82</v>
       </c>
       <c r="H18" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="I18" t="n">
         <v>0.89</v>
@@ -1375,22 +1326,19 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>46.2</v>
+        <v>90</v>
       </c>
       <c r="L18" t="n">
-        <v>305</v>
+        <v>166</v>
       </c>
       <c r="M18" t="n">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="N18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
         <v>25.1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="19">
@@ -1403,46 +1351,43 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>79.92</v>
+        <v>82.20999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.35</v>
+        <v>0.37</v>
       </c>
       <c r="E19" t="n">
-        <v>1.3</v>
+        <v>7.57</v>
       </c>
       <c r="F19" t="n">
-        <v>11.26</v>
+        <v>4.07</v>
       </c>
       <c r="G19" t="n">
-        <v>7.08</v>
+        <v>5.64</v>
       </c>
       <c r="H19" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="I19" t="n">
-        <v>1.79</v>
+        <v>4.46</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
-        <v>40</v>
+        <v>63.2</v>
       </c>
       <c r="L19" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M19" t="n">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O19" t="n">
-        <v>24.88</v>
-      </c>
-      <c r="P19" t="n">
-        <v>16</v>
+        <v>24.89</v>
       </c>
     </row>
     <row r="20">
@@ -1455,46 +1400,43 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>82.75</v>
+        <v>81.77</v>
       </c>
       <c r="D20" t="n">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="E20" t="n">
-        <v>2.44</v>
+        <v>6.93</v>
       </c>
       <c r="F20" t="n">
-        <v>9.15</v>
+        <v>3.39</v>
       </c>
       <c r="G20" t="n">
-        <v>5.16</v>
+        <v>7.31</v>
       </c>
       <c r="H20" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="I20" t="n">
-        <v>1.79</v>
+        <v>2.68</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>36.2</v>
+        <v>68</v>
       </c>
       <c r="L20" t="n">
-        <v>327</v>
+        <v>267</v>
       </c>
       <c r="M20" t="n">
-        <v>192</v>
+        <v>95</v>
       </c>
       <c r="N20" t="n">
         <v>13</v>
       </c>
       <c r="O20" t="n">
-        <v>25.24</v>
-      </c>
-      <c r="P20" t="n">
-        <v>16</v>
+        <v>25.11</v>
       </c>
     </row>
     <row r="21">
@@ -1507,46 +1449,43 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>83.44</v>
+        <v>83.19</v>
       </c>
       <c r="D21" t="n">
-        <v>0.24</v>
+        <v>0.27</v>
       </c>
       <c r="E21" t="n">
-        <v>2.16</v>
+        <v>7.99</v>
       </c>
       <c r="F21" t="n">
-        <v>8.140000000000001</v>
+        <v>1.23</v>
       </c>
       <c r="G21" t="n">
-        <v>5.96</v>
+        <v>7.23</v>
       </c>
       <c r="H21" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="I21" t="n">
-        <v>0.89</v>
+        <v>2.68</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>38.8</v>
+        <v>72.8</v>
       </c>
       <c r="L21" t="n">
-        <v>236</v>
+        <v>164</v>
       </c>
       <c r="M21" t="n">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O21" t="n">
-        <v>25.04</v>
-      </c>
-      <c r="P21" t="n">
-        <v>16</v>
+        <v>25.02</v>
       </c>
     </row>
     <row r="22">
@@ -1559,51 +1498,48 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>79.98999999999999</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="E22" t="n">
-        <v>2.82</v>
+        <v>13.36</v>
       </c>
       <c r="F22" t="n">
-        <v>8.85</v>
+        <v>3.02</v>
       </c>
       <c r="G22" t="n">
-        <v>8.09</v>
+        <v>6.73</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>52.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="L22" t="n">
-        <v>322</v>
+        <v>157</v>
       </c>
       <c r="M22" t="n">
-        <v>231</v>
+        <v>89</v>
       </c>
       <c r="N22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>25.4</v>
-      </c>
-      <c r="P22" t="n">
-        <v>16</v>
+        <v>25.36</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1611,51 +1547,48 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>52.6</v>
+        <v>75.72</v>
       </c>
       <c r="D23" t="n">
-        <v>0.11</v>
+        <v>0.35</v>
       </c>
       <c r="E23" t="n">
-        <v>30.23</v>
+        <v>11.35</v>
       </c>
       <c r="F23" t="n">
-        <v>11.93</v>
+        <v>6.41</v>
       </c>
       <c r="G23" t="n">
-        <v>5.09</v>
+        <v>6.09</v>
       </c>
       <c r="H23" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>168.6</v>
+        <v>83.3</v>
       </c>
       <c r="L23" t="n">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="M23" t="n">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>25.57</v>
-      </c>
-      <c r="P23" t="n">
-        <v>16</v>
+        <v>26.23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1663,22 +1596,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>76.47</v>
+        <v>83.81</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="E24" t="n">
-        <v>5.54</v>
+        <v>6.84</v>
       </c>
       <c r="F24" t="n">
-        <v>13.22</v>
+        <v>4.32</v>
       </c>
       <c r="G24" t="n">
-        <v>4.41</v>
+        <v>4.75</v>
       </c>
       <c r="H24" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -1687,123 +1620,67 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>47.5</v>
+        <v>55.4</v>
       </c>
       <c r="L24" t="n">
+        <v>226</v>
+      </c>
+      <c r="M24" t="n">
+        <v>148</v>
+      </c>
+      <c r="N24" t="n">
+        <v>12</v>
+      </c>
+      <c r="O24" t="n">
+        <v>26.42</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Avg. Count : 0.97 lbs</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>56.79</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E25" t="n">
+        <v>34.94</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G25" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>36</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6197.3</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5588</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1944</v>
+      </c>
+      <c r="N25" t="n">
         <v>296</v>
       </c>
-      <c r="M24" t="n">
-        <v>196</v>
-      </c>
-      <c r="N24" t="n">
-        <v>8</v>
-      </c>
-      <c r="O24" t="n">
-        <v>26.24</v>
-      </c>
-      <c r="P24" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>30</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>16.0 lbs-16/1 CRT</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>77.59</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E25" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="F25" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="G25" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>85</v>
-      </c>
-      <c r="L25" t="n">
-        <v>223</v>
-      </c>
-      <c r="M25" t="n">
-        <v>137</v>
-      </c>
-      <c r="N25" t="n">
-        <v>10</v>
-      </c>
       <c r="O25" t="n">
-        <v>26.37</v>
-      </c>
-      <c r="P25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>30</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>16.0 lbs-16/1 CRT</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>77.59</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="E26" t="n">
-        <v>13.13</v>
-      </c>
-      <c r="F26" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="G26" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>85</v>
-      </c>
-      <c r="L26" t="n">
-        <v>223</v>
-      </c>
-      <c r="M26" t="n">
-        <v>137</v>
-      </c>
-      <c r="N26" t="n">
-        <v>10</v>
-      </c>
-      <c r="O26" t="n">
-        <v>26.37</v>
-      </c>
-      <c r="P26" t="inlineStr"/>
+        <v>19.14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/manager_B.xlsx
+++ b/manager_B.xlsx
@@ -1,37 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>M/c No.</t>
+  </si>
+  <si>
+    <t>Count and Material</t>
+  </si>
+  <si>
+    <t>V ry</t>
+  </si>
+  <si>
+    <t>Power Factor</t>
+  </si>
+  <si>
+    <t>Curr_R</t>
+  </si>
+  <si>
+    <t>min/doff</t>
+  </si>
+  <si>
+    <t>Frequency (Hz)</t>
+  </si>
+  <si>
+    <t>kW</t>
+  </si>
+  <si>
+    <t>doff min</t>
+  </si>
+  <si>
+    <t>doffs</t>
+  </si>
+  <si>
+    <t>m/min</t>
+  </si>
+  <si>
+    <t>stop min</t>
+  </si>
+  <si>
+    <t>kWh</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +93,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,87 +409,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>M/c No.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Count and Material</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>V ry</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Power Factor</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Curr_R</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>min/doff</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency (Hz)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>kW</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>doff min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>doffs</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>m/min</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>stop min</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>kWh</t>
-        </is>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>